--- a/CasosConsultaExterna.xlsx
+++ b/CasosConsultaExterna.xlsx
@@ -410,9 +410,6 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="6" fillId="4" fontId="5" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="7" fillId="4" fontId="5" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -430,6 +427,9 @@
     </xf>
     <xf borderId="5" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -927,7 +927,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.71"/>
+    <col customWidth="1" min="1" max="15" width="10.71"/>
+    <col customWidth="1" min="16" max="17" width="14.43"/>
+    <col customWidth="1" min="18" max="26" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -1009,7 +1011,8 @@
         <v>10484.0</v>
       </c>
       <c r="M2" s="9">
-        <v>35740.0</v>
+        <f t="shared" ref="M2:M11" si="1">SUM(C2:L2)</f>
+        <v>37507</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -1049,8 +1052,9 @@
       <c r="L3" s="12">
         <v>12711.0</v>
       </c>
-      <c r="M3" s="13">
-        <v>47980.0</v>
+      <c r="M3" s="9">
+        <f t="shared" si="1"/>
+        <v>49625</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -1091,7 +1095,8 @@
         <v>8630.0</v>
       </c>
       <c r="M4" s="9">
-        <v>24637.0</v>
+        <f t="shared" si="1"/>
+        <v>24637</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -1131,8 +1136,9 @@
       <c r="L5" s="12">
         <v>9307.0</v>
       </c>
-      <c r="M5" s="13">
-        <v>28791.0</v>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>28791</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -1173,7 +1179,8 @@
         <v>8524.0</v>
       </c>
       <c r="M6" s="9">
-        <v>25194.0</v>
+        <f t="shared" si="1"/>
+        <v>25194</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -1213,8 +1220,9 @@
       <c r="L7" s="12">
         <v>9185.0</v>
       </c>
-      <c r="M7" s="13">
-        <v>29180.0</v>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>29180</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -1255,7 +1263,8 @@
         <v>9851.0</v>
       </c>
       <c r="M8" s="9">
-        <v>34664.0</v>
+        <f t="shared" si="1"/>
+        <v>34664</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -1295,8 +1304,9 @@
       <c r="L9" s="12">
         <v>11841.0</v>
       </c>
-      <c r="M9" s="13">
-        <v>49283.0</v>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>49283</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -1337,7 +1347,8 @@
         <v>9309.0</v>
       </c>
       <c r="M10" s="9">
-        <v>36289.0</v>
+        <f t="shared" si="1"/>
+        <v>36289</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -1377,8 +1388,9 @@
       <c r="L11" s="12">
         <v>11994.0</v>
       </c>
-      <c r="M11" s="13">
-        <v>51557.0</v>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>51557</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -2395,50 +2407,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>2391.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1156.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1602.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>4307.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>3992.0</v>
       </c>
     </row>
@@ -3461,50 +3473,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>188.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>183.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>196.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>281.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>360.0</v>
       </c>
     </row>
@@ -4605,7 +4617,8 @@
         <v>2847.0</v>
       </c>
       <c r="M2" s="9">
-        <v>13942.0</v>
+        <f t="shared" ref="M2:M11" si="1">SUM(C2:L2)</f>
+        <v>14635</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -4645,8 +4658,9 @@
       <c r="L3" s="12">
         <v>3585.0</v>
       </c>
-      <c r="M3" s="13">
-        <v>18725.0</v>
+      <c r="M3" s="9">
+        <f t="shared" si="1"/>
+        <v>19263</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -4687,7 +4701,8 @@
         <v>3676.0</v>
       </c>
       <c r="M4" s="9">
-        <v>15796.0</v>
+        <f t="shared" si="1"/>
+        <v>15796</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -4727,8 +4742,9 @@
       <c r="L5" s="12">
         <v>4250.0</v>
       </c>
-      <c r="M5" s="13">
-        <v>21634.0</v>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>21634</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -4769,7 +4785,8 @@
         <v>2263.0</v>
       </c>
       <c r="M6" s="9">
-        <v>12854.0</v>
+        <f t="shared" si="1"/>
+        <v>12854</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -4809,8 +4826,9 @@
       <c r="L7" s="12">
         <v>2806.0</v>
       </c>
-      <c r="M7" s="13">
-        <v>17938.0</v>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>17938</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -4851,7 +4869,8 @@
         <v>2360.0</v>
       </c>
       <c r="M8" s="9">
-        <v>14189.0</v>
+        <f t="shared" si="1"/>
+        <v>14189</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -4891,8 +4910,9 @@
       <c r="L9" s="12">
         <v>2976.0</v>
       </c>
-      <c r="M9" s="13">
-        <v>20090.0</v>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>20090</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -4933,7 +4953,8 @@
         <v>2180.0</v>
       </c>
       <c r="M10" s="9">
-        <v>13253.0</v>
+        <f t="shared" si="1"/>
+        <v>13253</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -4973,8 +4994,9 @@
       <c r="L11" s="12">
         <v>2604.0</v>
       </c>
-      <c r="M11" s="13">
-        <v>19284.0</v>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>19284</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -6069,7 +6091,8 @@
         <v>26681.0</v>
       </c>
       <c r="M2" s="9">
-        <v>105729.0</v>
+        <f t="shared" ref="M2:M11" si="1">SUM(C2:L2)</f>
+        <v>110977</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -6109,8 +6132,9 @@
       <c r="L3" s="12">
         <v>31662.0</v>
       </c>
-      <c r="M3" s="13">
-        <v>139672.0</v>
+      <c r="M3" s="9">
+        <f t="shared" si="1"/>
+        <v>144567</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -6151,7 +6175,8 @@
         <v>24703.0</v>
       </c>
       <c r="M4" s="9">
-        <v>93266.0</v>
+        <f t="shared" si="1"/>
+        <v>93266</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -6191,8 +6216,9 @@
       <c r="L5" s="12">
         <v>27367.0</v>
       </c>
-      <c r="M5" s="13">
-        <v>120010.0</v>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>120010</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -6233,7 +6259,8 @@
         <v>23788.0</v>
       </c>
       <c r="M6" s="9">
-        <v>94853.0</v>
+        <f t="shared" si="1"/>
+        <v>94853</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -6273,8 +6300,9 @@
       <c r="L7" s="12">
         <v>26497.0</v>
       </c>
-      <c r="M7" s="13">
-        <v>120654.0</v>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>120654</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -6315,7 +6343,8 @@
         <v>26012.0</v>
       </c>
       <c r="M8" s="9">
-        <v>112523.0</v>
+        <f t="shared" si="1"/>
+        <v>112523</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -6355,8 +6384,9 @@
       <c r="L9" s="12">
         <v>29998.0</v>
       </c>
-      <c r="M9" s="13">
-        <v>151130.0</v>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>151130</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -6397,7 +6427,8 @@
         <v>25527.0</v>
       </c>
       <c r="M10" s="9">
-        <v>124109.0</v>
+        <f t="shared" si="1"/>
+        <v>124109</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -6437,8 +6468,9 @@
       <c r="L11" s="12">
         <v>31352.0</v>
       </c>
-      <c r="M11" s="13">
-        <v>171460.0</v>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>171460</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -7533,7 +7565,8 @@
         <v>471959.0</v>
       </c>
       <c r="M2" s="9">
-        <v>1925738.0</v>
+        <f t="shared" ref="M2:M11" si="1">SUM(C2:L2)</f>
+        <v>2033403</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
@@ -7573,8 +7606,9 @@
       <c r="L3" s="12">
         <v>534757.0</v>
       </c>
-      <c r="M3" s="13">
-        <v>2652377.0</v>
+      <c r="M3" s="9">
+        <f t="shared" si="1"/>
+        <v>2746790</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
@@ -7615,7 +7649,8 @@
         <v>351407.0</v>
       </c>
       <c r="M4" s="9">
-        <v>1513580.0</v>
+        <f t="shared" si="1"/>
+        <v>1513580</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
@@ -7655,8 +7690,9 @@
       <c r="L5" s="12">
         <v>365224.0</v>
       </c>
-      <c r="M5" s="13">
-        <v>2012786.0</v>
+      <c r="M5" s="9">
+        <f t="shared" si="1"/>
+        <v>2012786</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
@@ -7697,7 +7733,8 @@
         <v>461173.0</v>
       </c>
       <c r="M6" s="9">
-        <v>2025536.0</v>
+        <f t="shared" si="1"/>
+        <v>2025536</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
@@ -7737,8 +7774,9 @@
       <c r="L7" s="12">
         <v>498415.0</v>
       </c>
-      <c r="M7" s="13">
-        <v>2744530.0</v>
+      <c r="M7" s="9">
+        <f t="shared" si="1"/>
+        <v>2744530</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -7779,7 +7817,8 @@
         <v>496364.0</v>
       </c>
       <c r="M8" s="9">
-        <v>2202445.0</v>
+        <f t="shared" si="1"/>
+        <v>2202445</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
@@ -7819,8 +7858,9 @@
       <c r="L9" s="12">
         <v>214391.0</v>
       </c>
-      <c r="M9" s="13">
-        <v>2744697.0</v>
+      <c r="M9" s="9">
+        <f t="shared" si="1"/>
+        <v>2744697</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
@@ -7861,7 +7901,8 @@
         <v>571188.0</v>
       </c>
       <c r="M10" s="9">
-        <v>2608241.0</v>
+        <f t="shared" si="1"/>
+        <v>2608241</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -7901,8 +7942,9 @@
       <c r="L11" s="12">
         <v>692612.0</v>
       </c>
-      <c r="M11" s="13">
-        <v>3754870.0</v>
+      <c r="M11" s="9">
+        <f t="shared" si="1"/>
+        <v>3754870</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -8922,444 +8964,444 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>6814.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>11891.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>18705.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>1426.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1964.0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>3390.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>1563.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1992.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3555.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>35502.0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>44255.0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>79757.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3226.0</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>4302.0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>7528.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>5210.0</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>8713.0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>13923.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <v>791.0</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <v>1212.0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <v>2003.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <v>1206.0</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <v>1182.0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <v>2388.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <v>21800.0</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <v>24885.0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <v>46685.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <v>3274.0</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>4561.0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>7835.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>5712.0</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>9951.0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>15663.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>1354.0</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>2149.0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>3503.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="15">
+      <c r="A14" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>1362.0</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>1339.0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <v>2701.0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="15">
+      <c r="A15" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>27084.0</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>22635.0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="14">
         <v>49719.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="15">
+      <c r="A16" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>3139.0</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>4335.0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="14">
         <v>7474.0</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="15">
+      <c r="A17" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="14">
         <v>9248.0</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="14">
         <v>15697.0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="14">
         <v>24945.0</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="14">
         <v>1319.0</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>2007.0</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>3326.0</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="15">
+      <c r="A19" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="14">
         <v>1608.0</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>1694.0</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="14">
         <v>3302.0</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="15">
+      <c r="A20" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="14">
         <v>28191.0</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="14">
         <v>39709.0</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="14">
         <v>67900.0</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="15">
+      <c r="A21" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="14">
         <v>3839.0</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="14">
         <v>5265.0</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="14">
         <v>9104.0</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="15">
+      <c r="A22" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="14">
         <v>13532.0</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="14">
         <v>21278.0</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="14">
         <v>34810.0</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="15">
+      <c r="A23" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="14">
         <v>2609.0</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="14">
         <v>3235.0</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="14">
         <v>5844.0</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="14">
         <v>1636.0</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="14">
         <v>1856.0</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="14">
         <v>3492.0</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="15">
+      <c r="A25" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="14">
         <v>24733.0</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D25" s="14">
         <v>34769.0</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="14">
         <v>59502.0</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="15">
+      <c r="A26" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="15">
+      <c r="C26" s="14">
         <v>4869.0</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="14">
         <v>6812.0</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="14">
         <v>11681.0</v>
       </c>
     </row>
@@ -10365,274 +10407,274 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="19">
+      <c r="A2" s="18">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3093.0</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>3582.0</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>6675.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>2019.0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>822.0</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1147.0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>1969.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="19">
+      <c r="A4" s="18">
         <v>2019.0</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>12105.0</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>16048.0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>28153.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="19">
+      <c r="A5" s="18">
         <v>2020.0</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>2472.0</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="20">
         <v>2788.0</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>5260.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="19">
+      <c r="A6" s="18">
         <v>2020.0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>966.0</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="20">
         <v>1389.0</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>2355.0</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="21">
         <v>2020.0</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>13631.0</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="20">
         <v>19148.0</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>32779.0</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="19">
+      <c r="A8" s="18">
         <v>2021.0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>2211.0</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="20">
         <v>2836.0</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>5047.0</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="19">
+      <c r="A9" s="18">
         <v>2021.0</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>966.0</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="20">
         <v>1597.0</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>2563.0</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="22">
+      <c r="A10" s="21">
         <v>2021.0</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>10960.0</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="20">
         <v>15485.0</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>26445.0</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="18">
         <v>2022.0</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>2771.0</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="20">
         <v>3546.0</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>6317.0</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="19">
+      <c r="A12" s="18">
         <v>2022.0</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>1323.0</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="20">
         <v>1944.0</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="20">
         <v>3267.0</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>2022.0</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>11933.0</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="20">
         <v>17201.0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="20">
         <v>29134.0</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="19">
+      <c r="A14" s="18">
         <v>2023.0</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>2822.0</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>3746.0</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>6568.0</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="19">
+      <c r="A15" s="18">
         <v>2023.0</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>1247.0</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>1978.0</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>3225.0</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>2023.0</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>11178.0</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="20">
         <v>16621.0</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="20">
         <v>27799.0</v>
       </c>
     </row>
@@ -11650,55 +11692,55 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11804,7 +11846,7 @@
       <c r="P3" s="12">
         <v>2561.0</v>
       </c>
-      <c r="Q3" s="13">
+      <c r="Q3" s="25">
         <v>2561.0</v>
       </c>
     </row>
@@ -11910,7 +11952,7 @@
       <c r="P5" s="12">
         <v>6536.0</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="Q5" s="25">
         <v>14374.0</v>
       </c>
     </row>
@@ -12016,7 +12058,7 @@
       <c r="P7" s="12">
         <v>6.0</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="25">
         <v>7.0</v>
       </c>
     </row>
@@ -12122,7 +12164,7 @@
       <c r="P9" s="12">
         <v>82.0</v>
       </c>
-      <c r="Q9" s="13">
+      <c r="Q9" s="25">
         <v>144.0</v>
       </c>
     </row>
@@ -12228,7 +12270,7 @@
       <c r="P11" s="12">
         <v>431.0</v>
       </c>
-      <c r="Q11" s="13">
+      <c r="Q11" s="25">
         <v>1013.0</v>
       </c>
     </row>
@@ -12334,7 +12376,7 @@
       <c r="P13" s="12">
         <v>2256.0</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="25">
         <v>4168.0</v>
       </c>
     </row>
@@ -12440,7 +12482,7 @@
       <c r="P15" s="12">
         <v>538.0</v>
       </c>
-      <c r="Q15" s="13">
+      <c r="Q15" s="25">
         <v>955.0</v>
       </c>
     </row>
@@ -12546,7 +12588,7 @@
       <c r="P17" s="12">
         <v>3718.0</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="25">
         <v>5879.0</v>
       </c>
     </row>
@@ -12652,7 +12694,7 @@
       <c r="P19" s="12">
         <v>1271.0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="25">
         <v>1998.0</v>
       </c>
     </row>
@@ -12758,7 +12800,7 @@
       <c r="P21" s="12">
         <v>2242.0</v>
       </c>
-      <c r="Q21" s="13">
+      <c r="Q21" s="25">
         <v>4745.0</v>
       </c>
     </row>
@@ -12864,7 +12906,7 @@
       <c r="P23" s="12">
         <v>259.0</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="25">
         <v>641.0</v>
       </c>
     </row>
@@ -12970,7 +13012,7 @@
       <c r="P25" s="12">
         <v>3738.0</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="25">
         <v>3738.0</v>
       </c>
     </row>
@@ -13076,7 +13118,7 @@
       <c r="P27" s="12">
         <v>3235.0</v>
       </c>
-      <c r="Q27" s="13">
+      <c r="Q27" s="25">
         <v>4376.0</v>
       </c>
     </row>
@@ -13182,7 +13224,7 @@
       <c r="P29" s="12">
         <v>425.0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="25">
         <v>580.0</v>
       </c>
     </row>
@@ -13288,7 +13330,7 @@
       <c r="P31" s="12">
         <v>4411.0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="25">
         <v>6915.0</v>
       </c>
     </row>
@@ -14303,50 +14345,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>379.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>220.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>495.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>242.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>299.0</v>
       </c>
     </row>
@@ -15369,50 +15411,50 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2019.0</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>2020.0</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>2021.0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>5.0</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>2022.0</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>48.0</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>2023.0</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>43.0</v>
       </c>
     </row>
